--- a/team_specific_matrix/New Hampshire_B.xlsx
+++ b/team_specific_matrix/New Hampshire_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1754385964912281</v>
+        <v>0.174468085106383</v>
       </c>
       <c r="C2">
-        <v>0.6198830409356725</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005847953216374269</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1345029239766082</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06432748538011696</v>
+        <v>0.07659574468085106</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02727272727272727</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03636363636363636</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7181818181818181</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2181818181818182</v>
+        <v>0.1972789115646258</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1428571428571428</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03571428571428571</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.07142857142857142</v>
+        <v>0.1470588235294118</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05298013245033113</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006622516556291391</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="E6">
-        <v>0.006622516556291391</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="F6">
-        <v>0.05960264900662252</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2185430463576159</v>
+        <v>0.2010869565217391</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01986754966887417</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2119205298013245</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="R6">
-        <v>0.05960264900662252</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="S6">
-        <v>0.3642384105960265</v>
+        <v>0.3967391304347826</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.143939393939394</v>
+        <v>0.1479289940828402</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01515151515151515</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="F7">
-        <v>0.03787878787878788</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1212121212121212</v>
+        <v>0.1124260355029586</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02272727272727273</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.1656804733727811</v>
       </c>
       <c r="R7">
-        <v>0.03787878787878788</v>
+        <v>0.04142011834319527</v>
       </c>
       <c r="S7">
-        <v>0.4545454545454545</v>
+        <v>0.4556213017751479</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07516339869281045</v>
+        <v>0.07397959183673469</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006535947712418301</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="E8">
-        <v>0.00326797385620915</v>
+        <v>0.002551020408163265</v>
       </c>
       <c r="F8">
-        <v>0.0457516339869281</v>
+        <v>0.04336734693877551</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1176470588235294</v>
+        <v>0.1096938775510204</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006535947712418301</v>
+        <v>0.007653061224489796</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.196078431372549</v>
+        <v>0.2066326530612245</v>
       </c>
       <c r="R8">
-        <v>0.08496732026143791</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="S8">
-        <v>0.4640522875816994</v>
+        <v>0.4540816326530612</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07602339181286549</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01754385964912281</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08187134502923976</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07017543859649122</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01169590643274854</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2163742690058479</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="R9">
-        <v>0.1111111111111111</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="S9">
-        <v>0.4152046783625731</v>
+        <v>0.4220183486238532</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07715430861723446</v>
+        <v>0.08783239323126511</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02104208416833667</v>
+        <v>0.0201450443190975</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06412825651302605</v>
+        <v>0.06365834004834811</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1032064128256513</v>
+        <v>0.1103948428686543</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01402805611222445</v>
+        <v>0.0145044319097502</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2334669338677355</v>
+        <v>0.2159548751007252</v>
       </c>
       <c r="R10">
-        <v>0.07414829659318638</v>
+        <v>0.07091055600322321</v>
       </c>
       <c r="S10">
-        <v>0.4128256513026052</v>
+        <v>0.4165995165189363</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1448598130841121</v>
+        <v>0.1412213740458015</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08411214953271028</v>
+        <v>0.07633587786259542</v>
       </c>
       <c r="K11">
-        <v>0.2242990654205607</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="L11">
-        <v>0.5280373831775701</v>
+        <v>0.5496183206106871</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01869158878504673</v>
+        <v>0.01908396946564886</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.008547008547008548</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="G12">
-        <v>0.7435897435897436</v>
+        <v>0.74</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1794871794871795</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05128205128205128</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0170940170940171</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7037037037037037</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2962962962962963</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02649006622516556</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1258278145695364</v>
+        <v>0.1117021276595745</v>
       </c>
       <c r="I15">
-        <v>0.1059602649006623</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="J15">
-        <v>0.3708609271523179</v>
+        <v>0.3936170212765958</v>
       </c>
       <c r="K15">
-        <v>0.05960264900662252</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="O15">
-        <v>0.08609271523178808</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2251655629139073</v>
+        <v>0.2340425531914894</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008264462809917356</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1487603305785124</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="I16">
-        <v>0.1322314049586777</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="J16">
-        <v>0.4380165289256198</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="K16">
-        <v>0.09090909090909091</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01652892561983471</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="O16">
-        <v>0.05785123966942149</v>
+        <v>0.05590062111801242</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1074380165289256</v>
+        <v>0.09937888198757763</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007712082262210797</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1619537275064267</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="I17">
-        <v>0.1233933161953727</v>
+        <v>0.1225806451612903</v>
       </c>
       <c r="J17">
-        <v>0.4730077120822622</v>
+        <v>0.4709677419354839</v>
       </c>
       <c r="K17">
-        <v>0.08997429305912596</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01542416452442159</v>
+        <v>0.01505376344086022</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04113110539845758</v>
+        <v>0.04086021505376344</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08740359897172237</v>
+        <v>0.08602150537634409</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007633587786259542</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1526717557251908</v>
+        <v>0.1419753086419753</v>
       </c>
       <c r="I18">
-        <v>0.0916030534351145</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="J18">
-        <v>0.4351145038167939</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="K18">
-        <v>0.1221374045801527</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007633587786259542</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07633587786259542</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1068702290076336</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01160337552742616</v>
+        <v>0.009876543209876543</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.189873417721519</v>
+        <v>0.1991769547325103</v>
       </c>
       <c r="I19">
-        <v>0.08438818565400844</v>
+        <v>0.09382716049382717</v>
       </c>
       <c r="J19">
-        <v>0.4282700421940928</v>
+        <v>0.405761316872428</v>
       </c>
       <c r="K19">
-        <v>0.09915611814345991</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02004219409282701</v>
+        <v>0.01810699588477366</v>
       </c>
       <c r="N19">
-        <v>0.002109704641350211</v>
+        <v>0.001646090534979424</v>
       </c>
       <c r="O19">
-        <v>0.07067510548523206</v>
+        <v>0.07325102880658436</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09388185654008439</v>
+        <v>0.09958847736625515</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/New Hampshire_B.xlsx
+++ b/team_specific_matrix/New Hampshire_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.174468085106383</v>
+        <v>0.17578125</v>
       </c>
       <c r="C2">
-        <v>0.5957446808510638</v>
+        <v>0.59375</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00425531914893617</v>
+        <v>0.01171875</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.148936170212766</v>
+        <v>0.14453125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07659574468085106</v>
+        <v>0.07421875</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03401360544217687</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04081632653061224</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7278911564625851</v>
+        <v>0.7484276729559748</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1972789115646258</v>
+        <v>0.1823899371069182</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1470588235294118</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02941176470588235</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P4">
-        <v>0.6764705882352942</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1470588235294118</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05978260869565218</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005434782608695652</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="E6">
-        <v>0.005434782608695652</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="F6">
-        <v>0.05978260869565218</v>
+        <v>0.05365853658536585</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2010869565217391</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01630434782608696</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1956521739130435</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
-        <v>0.05978260869565218</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="S6">
-        <v>0.3967391304347826</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1479289940828402</v>
+        <v>0.1375661375661376</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01775147928994083</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E7">
-        <v>0.005917159763313609</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="F7">
-        <v>0.03550295857988166</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1124260355029586</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01775147928994083</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1656804733727811</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="R7">
-        <v>0.04142011834319527</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="S7">
-        <v>0.4556213017751479</v>
+        <v>0.4391534391534391</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07397959183673469</v>
+        <v>0.07674418604651163</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00510204081632653</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="E8">
-        <v>0.002551020408163265</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="F8">
-        <v>0.04336734693877551</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1096938775510204</v>
+        <v>0.1069767441860465</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007653061224489796</v>
+        <v>0.006976744186046512</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2066326530612245</v>
+        <v>0.2069767441860465</v>
       </c>
       <c r="R8">
-        <v>0.09693877551020408</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="S8">
-        <v>0.4540816326530612</v>
+        <v>0.4441860465116279</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07798165137614679</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01834862385321101</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07798165137614679</v>
+        <v>0.07851239669421488</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08256880733944955</v>
+        <v>0.08677685950413223</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009174311926605505</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2201834862385321</v>
+        <v>0.2231404958677686</v>
       </c>
       <c r="R9">
-        <v>0.09174311926605505</v>
+        <v>0.09917355371900827</v>
       </c>
       <c r="S9">
-        <v>0.4220183486238532</v>
+        <v>0.4173553719008264</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08783239323126511</v>
+        <v>0.08493932905067808</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0201450443190975</v>
+        <v>0.02069950035688794</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007137758743754461</v>
       </c>
       <c r="F10">
-        <v>0.06365834004834811</v>
+        <v>0.06281227694503926</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1103948428686543</v>
+        <v>0.1063526052819415</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0145044319097502</v>
+        <v>0.01570306923625981</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2159548751007252</v>
+        <v>0.2177016416845111</v>
       </c>
       <c r="R10">
-        <v>0.07091055600322321</v>
+        <v>0.07566024268379729</v>
       </c>
       <c r="S10">
-        <v>0.4165995165189363</v>
+        <v>0.4154175588865097</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1412213740458015</v>
+        <v>0.1384083044982699</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07633587786259542</v>
+        <v>0.06920415224913495</v>
       </c>
       <c r="K11">
-        <v>0.2137404580152672</v>
+        <v>0.2041522491349481</v>
       </c>
       <c r="L11">
-        <v>0.5496183206106871</v>
+        <v>0.5674740484429066</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01908396946564886</v>
+        <v>0.02076124567474048</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.006666666666666667</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="G12">
-        <v>0.74</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1866666666666667</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05333333333333334</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01333333333333333</v>
+        <v>0.01176470588235294</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7714285714285715</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2285714285714286</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03191489361702127</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1117021276595745</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="I15">
-        <v>0.0851063829787234</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="J15">
-        <v>0.3936170212765958</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="K15">
-        <v>0.06382978723404255</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.005319148936170213</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="O15">
-        <v>0.07446808510638298</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2340425531914894</v>
+        <v>0.2206572769953052</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006211180124223602</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.124223602484472</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="I16">
-        <v>0.1055900621118012</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="J16">
-        <v>0.4782608695652174</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="K16">
-        <v>0.09937888198757763</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02484472049689441</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="N16">
-        <v>0.006211180124223602</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="O16">
-        <v>0.05590062111801242</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09937888198757763</v>
+        <v>0.1016949152542373</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.006451612903225806</v>
+        <v>0.005671077504725898</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1720430107526882</v>
+        <v>0.168241965973535</v>
       </c>
       <c r="I17">
-        <v>0.1225806451612903</v>
+        <v>0.1190926275992439</v>
       </c>
       <c r="J17">
-        <v>0.4709677419354839</v>
+        <v>0.4706994328922495</v>
       </c>
       <c r="K17">
-        <v>0.08602150537634409</v>
+        <v>0.09073724007561437</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01505376344086022</v>
+        <v>0.01512287334593573</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04086021505376344</v>
+        <v>0.04158790170132325</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08602150537634409</v>
+        <v>0.0888468809073724</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006172839506172839</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1419753086419753</v>
+        <v>0.140625</v>
       </c>
       <c r="I18">
-        <v>0.09259259259259259</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="J18">
-        <v>0.4567901234567901</v>
+        <v>0.4739583333333333</v>
       </c>
       <c r="K18">
-        <v>0.1049382716049383</v>
+        <v>0.09375</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01234567901234568</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06172839506172839</v>
+        <v>0.0625</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1234567901234568</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009876543209876543</v>
+        <v>0.009572901325478646</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1991769547325103</v>
+        <v>0.1921944035346097</v>
       </c>
       <c r="I19">
-        <v>0.09382716049382717</v>
+        <v>0.09351988217967599</v>
       </c>
       <c r="J19">
-        <v>0.405761316872428</v>
+        <v>0.4079528718703976</v>
       </c>
       <c r="K19">
-        <v>0.09876543209876543</v>
+        <v>0.09720176730486009</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01810699588477366</v>
+        <v>0.01914580265095729</v>
       </c>
       <c r="N19">
-        <v>0.001646090534979424</v>
+        <v>0.001472754050073638</v>
       </c>
       <c r="O19">
-        <v>0.07325102880658436</v>
+        <v>0.07290132547864507</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09958847736625515</v>
+        <v>0.1060382916053019</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/New Hampshire_B.xlsx
+++ b/team_specific_matrix/New Hampshire_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.17578125</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C2">
-        <v>0.59375</v>
+        <v>0.5919117647058824</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01171875</v>
+        <v>0.01102941176470588</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.14453125</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07421875</v>
+        <v>0.07352941176470588</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03144654088050314</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03773584905660377</v>
+        <v>0.04733727810650887</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7484276729559748</v>
+        <v>0.7218934911242604</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1823899371069182</v>
+        <v>0.1952662721893491</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.131578947368421</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P4">
-        <v>0.631578947368421</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2105263157894737</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05853658536585366</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004878048780487805</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="E6">
-        <v>0.004878048780487805</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F6">
-        <v>0.05365853658536585</v>
+        <v>0.05213270142180094</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.1990521327014218</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01951219512195122</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2</v>
+        <v>0.1943127962085308</v>
       </c>
       <c r="R6">
-        <v>0.05853658536585366</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.4028436018957346</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1375661375661376</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01587301587301587</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E7">
-        <v>0.005291005291005291</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="F7">
-        <v>0.04232804232804233</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1058201058201058</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01587301587301587</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1957671957671958</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="R7">
-        <v>0.04232804232804233</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="S7">
-        <v>0.4391534391534391</v>
+        <v>0.4307692307692308</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07674418604651163</v>
+        <v>0.08126410835214447</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004651162790697674</v>
+        <v>0.004514672686230248</v>
       </c>
       <c r="E8">
-        <v>0.002325581395348837</v>
+        <v>0.002257336343115124</v>
       </c>
       <c r="F8">
-        <v>0.04651162790697674</v>
+        <v>0.04514672686230248</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1069767441860465</v>
+        <v>0.1038374717832957</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006976744186046512</v>
+        <v>0.009029345372460496</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2069767441860465</v>
+        <v>0.2031602708803612</v>
       </c>
       <c r="R8">
-        <v>0.1046511627906977</v>
+        <v>0.1038374717832957</v>
       </c>
       <c r="S8">
-        <v>0.4441860465116279</v>
+        <v>0.4469525959367946</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07024793388429752</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01652892561983471</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07851239669421488</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08677685950413223</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008264462809917356</v>
+        <v>0.008032128514056224</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2231404958677686</v>
+        <v>0.2248995983935743</v>
       </c>
       <c r="R9">
-        <v>0.09917355371900827</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="S9">
-        <v>0.4173553719008264</v>
+        <v>0.4136546184738956</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08493932905067808</v>
+        <v>0.08701657458563536</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02069950035688794</v>
+        <v>0.02071823204419889</v>
       </c>
       <c r="E10">
-        <v>0.0007137758743754461</v>
+        <v>0.0006906077348066298</v>
       </c>
       <c r="F10">
-        <v>0.06281227694503926</v>
+        <v>0.06146408839779006</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1063526052819415</v>
+        <v>0.1035911602209945</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01570306923625981</v>
+        <v>0.01588397790055249</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2177016416845111</v>
+        <v>0.2147790055248619</v>
       </c>
       <c r="R10">
-        <v>0.07566024268379729</v>
+        <v>0.07803867403314917</v>
       </c>
       <c r="S10">
-        <v>0.4154175588865097</v>
+        <v>0.417817679558011</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1384083044982699</v>
+        <v>0.1389830508474576</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06920415224913495</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="K11">
-        <v>0.2041522491349481</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L11">
-        <v>0.5674740484429066</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02076124567474048</v>
+        <v>0.02033898305084746</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.005882352941176471</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="G12">
-        <v>0.7470588235294118</v>
+        <v>0.7528735632183908</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1882352941176471</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04705882352941176</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01176470588235294</v>
+        <v>0.01149425287356322</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03286384976525822</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1126760563380282</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="I15">
-        <v>0.08450704225352113</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="J15">
-        <v>0.4084507042253521</v>
+        <v>0.4099099099099099</v>
       </c>
       <c r="K15">
-        <v>0.06103286384976526</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.004694835680751174</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="O15">
-        <v>0.07511737089201878</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2206572769953052</v>
+        <v>0.2297297297297297</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005649717514124294</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1355932203389831</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="I16">
-        <v>0.1016949152542373</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="J16">
-        <v>0.4745762711864407</v>
+        <v>0.467032967032967</v>
       </c>
       <c r="K16">
-        <v>0.1016949152542373</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02259887005649718</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="N16">
-        <v>0.005649717514124294</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="O16">
-        <v>0.05084745762711865</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1016949152542373</v>
+        <v>0.1043956043956044</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.005671077504725898</v>
+        <v>0.005565862708719851</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.168241965973535</v>
+        <v>0.1651205936920223</v>
       </c>
       <c r="I17">
-        <v>0.1190926275992439</v>
+        <v>0.1205936920222635</v>
       </c>
       <c r="J17">
-        <v>0.4706994328922495</v>
+        <v>0.4730983302411874</v>
       </c>
       <c r="K17">
-        <v>0.09073724007561437</v>
+        <v>0.08905380333951762</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01512287334593573</v>
+        <v>0.01484230055658627</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04158790170132325</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0888468809073724</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005208333333333333</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.140625</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="I18">
-        <v>0.08854166666666667</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="J18">
-        <v>0.4739583333333333</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="K18">
-        <v>0.09375</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01041666666666667</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0625</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125</v>
+        <v>0.1237623762376238</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009572901325478646</v>
+        <v>0.009943181818181818</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1921944035346097</v>
+        <v>0.1938920454545454</v>
       </c>
       <c r="I19">
-        <v>0.09351988217967599</v>
+        <v>0.09232954545454546</v>
       </c>
       <c r="J19">
-        <v>0.4079528718703976</v>
+        <v>0.4112215909090909</v>
       </c>
       <c r="K19">
-        <v>0.09720176730486009</v>
+        <v>0.09659090909090909</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01914580265095729</v>
+        <v>0.01917613636363636</v>
       </c>
       <c r="N19">
-        <v>0.001472754050073638</v>
+        <v>0.001420454545454545</v>
       </c>
       <c r="O19">
-        <v>0.07290132547864507</v>
+        <v>0.07315340909090909</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1060382916053019</v>
+        <v>0.1022727272727273</v>
       </c>
     </row>
   </sheetData>
